--- a/backend/assets/faculty_locations.xlsx
+++ b/backend/assets/faculty_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ARAPP\NaviGo\backend\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC54E3A-3D18-4416-935D-1FBEE231F30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446BC31F-DDD6-4599-B12B-01E986EAC0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,10 +564,13 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
